--- a/out_booth_244/suspect_summary.xlsx
+++ b/out_booth_244/suspect_summary.xlsx
@@ -774,10 +774,18 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Serial number 4 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1416,16 +1424,16 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>House number 1X on street '1-Karupparayan Kovil Street Ward No-9' contains 12 registered voters including serial number 13, which exceeds the household size threshold. | Serial number 13 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1X on street '1-Karupparayan Kovil Street Ward No-9' contains 12 registered voters including serial number 13, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -1786,16 +1794,16 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>House number 1X on street '1-Karupparayan Kovil Street Ward No-9' contains 12 registered voters including serial number 18, which exceeds the household size threshold. | Serial number 18 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1X on street '1-Karupparayan Kovil Street Ward No-9' contains 12 registered voters including serial number 18, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -2354,10 +2362,18 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Serial number 26 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2972,10 +2988,18 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Serial number 35 does not have any valid parent or spouse relationship with other voters in house number 3-524 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3038,10 +3062,18 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Serial number 36 does not have any valid parent or spouse relationship with other voters in house number 3-524 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5212,10 +5244,18 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Serial number 67 does not have any valid parent or spouse relationship with other voters in house number 7C on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5278,16 +5318,16 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Serial number 68 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 68 does not have any valid parent or spouse relationship with other voters in house number 7C on street '1-Karupparayan Kovil Street Ward No-9'. | Serial number 68 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -5484,10 +5524,18 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Serial number 71 does not have any valid parent or spouse relationship with other voters in house number 7D on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5550,10 +5598,18 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Serial number 72 does not have any valid parent or spouse relationship with other voters in house number 7d on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5946,18 +6002,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Serial number 78 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6498,10 +6546,18 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Serial number 86 does not have any valid parent or spouse relationship with other voters in house number 11 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7058,18 +7114,10 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Serial number 94 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7132,18 +7180,10 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Serial number 95 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7956,10 +7996,18 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Serial number 107 does not have any valid parent or spouse relationship with other voters in house number 154 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8022,10 +8070,18 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Serial number 108 does not have any valid parent or spouse relationship with other voters in house number 154 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8294,10 +8350,18 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Serial number 112 does not have any valid parent or spouse relationship with other voters in house number 16 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8434,16 +8498,16 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Serial number 114 was flagged due to rule: INVALID_EPIC_ID. | Serial number 114 has invalid age value 0. | Serial number 114 does not have a valid house number recorded.</t>
+          <t>Serial number 114 has invalid age value 0. | Serial number 114 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -8780,10 +8844,18 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Serial number 119 does not have any valid parent or spouse relationship with other voters in house number 17 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10486,10 +10558,18 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Serial number 144 does not have any valid parent or spouse relationship with other voters in house number 23 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -10758,10 +10838,18 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Serial number 148 does not have any valid parent or spouse relationship with other voters in house number 24 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -11038,10 +11126,18 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>Serial number 152 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -11104,10 +11200,18 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>Serial number 153 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11302,10 +11406,18 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Serial number 156 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -12430,18 +12542,10 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>1</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>Serial number 172 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12504,16 +12608,16 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>Serial number 173 was flagged due to rule: INVALID_EPIC_ID. | Serial number 173 does not have a valid house number recorded.</t>
+          <t>Serial number 173 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -12998,18 +13102,10 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>1</v>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>Serial number 180 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -13418,10 +13514,18 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>0</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>Serial number 186 does not have any valid parent or spouse relationship with other voters in house number 3543 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13484,10 +13588,18 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>Serial number 187 does not have any valid parent or spouse relationship with other voters in house number 3543 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -14176,16 +14288,16 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>Serial number 197 is the only voter listed under house number 37-3 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 197 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 197 is the only voter listed under house number 37-3 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -15690,10 +15802,18 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Serial number 218 does not have any valid parent or spouse relationship with other voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -15756,16 +15876,16 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 219.</t>
+          <t>Multiple voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 219. | Serial number 219 does not have any valid parent or spouse relationship with other voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -16316,10 +16436,18 @@
         </is>
       </c>
       <c r="N228" t="n">
-        <v>0</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Serial number 227 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -16382,10 +16510,18 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Serial number 228 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -17712,12 +17848,12 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>Serial number 247 is the only voter listed under house number 48-56 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244.</t>
+          <t>Serial number 247 does not have any valid parent or spouse relationship with other voters in house number 48-56 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -17782,18 +17918,10 @@
         </is>
       </c>
       <c r="N249" t="n">
-        <v>1</v>
-      </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P249" t="inlineStr">
-        <is>
-          <t>Serial number 248 is the only voter listed under house number 48/56 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -19216,10 +19344,18 @@
         </is>
       </c>
       <c r="N270" t="n">
-        <v>0</v>
-      </c>
-      <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>Serial number 269 does not have any valid parent or spouse relationship with other voters in house number 53 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -23856,16 +23992,16 @@
         </is>
       </c>
       <c r="N338" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>Serial number 337 has identical personal and family details as serial number(s) [338] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 337.</t>
+          <t>Serial number 337 has identical personal and family details as serial number(s) [338] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 337. | Serial number 337 does not have any valid parent or spouse relationship with other voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -23930,16 +24066,16 @@
         </is>
       </c>
       <c r="N339" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>Serial number 338 has identical personal and family details as serial number(s) [337] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 338.</t>
+          <t>Serial number 338 has identical personal and family details as serial number(s) [337] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 338. | Serial number 338 does not have any valid parent or spouse relationship with other voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -24498,10 +24634,18 @@
         </is>
       </c>
       <c r="N347" t="n">
-        <v>0</v>
-      </c>
-      <c r="O347" t="inlineStr"/>
-      <c r="P347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>Serial number 346 does not have any valid parent or spouse relationship with other voters in house number 81 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -24836,16 +24980,16 @@
         </is>
       </c>
       <c r="N352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Serial number 351 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 351 does not have any valid parent or spouse relationship with other voters in house number 83 on street '1-Karupparayan Kovil Street Ward No-9'. | Serial number 351 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -25050,10 +25194,18 @@
         </is>
       </c>
       <c r="N355" t="n">
-        <v>0</v>
-      </c>
-      <c r="O355" t="inlineStr"/>
-      <c r="P355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>Serial number 354 does not have any valid parent or spouse relationship with other voters in house number 83 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -25750,10 +25902,18 @@
         </is>
       </c>
       <c r="N365" t="n">
-        <v>0</v>
-      </c>
-      <c r="O365" t="inlineStr"/>
-      <c r="P365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>Serial number 364 does not have any valid parent or spouse relationship with other voters in house number 86 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -25816,10 +25976,18 @@
         </is>
       </c>
       <c r="N366" t="n">
-        <v>0</v>
-      </c>
-      <c r="O366" t="inlineStr"/>
-      <c r="P366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>Serial number 365 does not have any valid parent or spouse relationship with other voters in house number 86 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -26088,10 +26256,18 @@
         </is>
       </c>
       <c r="N370" t="n">
-        <v>0</v>
-      </c>
-      <c r="O370" t="inlineStr"/>
-      <c r="P370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>Serial number 369 does not have any valid parent or spouse relationship with other voters in house number 87 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -28042,10 +28218,18 @@
         </is>
       </c>
       <c r="N399" t="n">
-        <v>0</v>
-      </c>
-      <c r="O399" t="inlineStr"/>
-      <c r="P399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>Serial number 398 does not have any valid parent or spouse relationship with other voters in house number 98 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -28108,10 +28292,18 @@
         </is>
       </c>
       <c r="N400" t="n">
-        <v>0</v>
-      </c>
-      <c r="O400" t="inlineStr"/>
-      <c r="P400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>Serial number 399 does not have any valid parent or spouse relationship with other voters in house number 98 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -28174,10 +28366,18 @@
         </is>
       </c>
       <c r="N401" t="n">
-        <v>0</v>
-      </c>
-      <c r="O401" t="inlineStr"/>
-      <c r="P401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>Serial number 400 does not have any valid parent or spouse relationship with other voters in house number 98-308 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -28240,10 +28440,18 @@
         </is>
       </c>
       <c r="N402" t="n">
-        <v>0</v>
-      </c>
-      <c r="O402" t="inlineStr"/>
-      <c r="P402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>Serial number 401 does not have any valid parent or spouse relationship with other voters in house number 98-308 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -28636,10 +28844,18 @@
         </is>
       </c>
       <c r="N408" t="n">
-        <v>0</v>
-      </c>
-      <c r="O408" t="inlineStr"/>
-      <c r="P408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>Serial number 407 does not have any valid parent or spouse relationship with other voters in house number 101 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -30506,16 +30722,16 @@
         </is>
       </c>
       <c r="N435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P435" t="inlineStr">
         <is>
-          <t>Serial number 434 has identical personal and family details as serial number(s) [435] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 434.</t>
+          <t>Serial number 434 has identical personal and family details as serial number(s) [435] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 434. | Serial number 434 does not have any valid parent or spouse relationship with other voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -30580,16 +30796,16 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, INVALID_EPIC_ID, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, INVALID_EPIC_ID, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P436" t="inlineStr">
         <is>
-          <t>Serial number 435 has identical personal and family details as serial number(s) [434] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 435. | Serial number 435 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 435 has identical personal and family details as serial number(s) [434] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 435. | Serial number 435 does not have any valid parent or spouse relationship with other voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9'. | Serial number 435 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -31288,10 +31504,18 @@
         </is>
       </c>
       <c r="N446" t="n">
-        <v>0</v>
-      </c>
-      <c r="O446" t="inlineStr"/>
-      <c r="P446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>Serial number 445 does not have any valid parent or spouse relationship with other voters in house number 162 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -31354,10 +31578,18 @@
         </is>
       </c>
       <c r="N447" t="n">
-        <v>0</v>
-      </c>
-      <c r="O447" t="inlineStr"/>
-      <c r="P447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>Serial number 446 does not have any valid parent or spouse relationship with other voters in house number 162 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -32152,10 +32384,18 @@
         </is>
       </c>
       <c r="N458" t="n">
-        <v>0</v>
-      </c>
-      <c r="O458" t="inlineStr"/>
-      <c r="P458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>Serial number 457 does not have any valid parent or spouse relationship with other voters in house number 1G on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -32218,10 +32458,18 @@
         </is>
       </c>
       <c r="N459" t="n">
-        <v>0</v>
-      </c>
-      <c r="O459" t="inlineStr"/>
-      <c r="P459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>Serial number 458 does not have any valid parent or spouse relationship with other voters in house number 1G on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -32548,10 +32796,18 @@
         </is>
       </c>
       <c r="N464" t="n">
-        <v>0</v>
-      </c>
-      <c r="O464" t="inlineStr"/>
-      <c r="P464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>Serial number 463 does not have any valid parent or spouse relationship with other voters in house number 1X on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -32688,10 +32944,18 @@
         </is>
       </c>
       <c r="N466" t="n">
-        <v>0</v>
-      </c>
-      <c r="O466" t="inlineStr"/>
-      <c r="P466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>Serial number 465 does not have any valid parent or spouse relationship with other voters in house number 1X on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -32754,10 +33018,18 @@
         </is>
       </c>
       <c r="N467" t="n">
-        <v>0</v>
-      </c>
-      <c r="O467" t="inlineStr"/>
-      <c r="P467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>Serial number 466 does not have any valid parent or spouse relationship with other voters in house number 1x on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -33026,16 +33298,16 @@
         </is>
       </c>
       <c r="N471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P471" t="inlineStr">
         <is>
-          <t>Serial number 470 is the only voter listed under house number 2-15 on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 470 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 470 is the only voter listed under house number 2-15 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -33570,10 +33842,18 @@
         </is>
       </c>
       <c r="N479" t="n">
-        <v>0</v>
-      </c>
-      <c r="O479" t="inlineStr"/>
-      <c r="P479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>Serial number 478 does not have any valid parent or spouse relationship with other voters in house number 3 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -36454,10 +36734,18 @@
         </is>
       </c>
       <c r="N521" t="n">
-        <v>0</v>
-      </c>
-      <c r="O521" t="inlineStr"/>
-      <c r="P521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>Serial number 520 does not have any valid parent or spouse relationship with other voters in house number 7 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -42050,16 +42338,16 @@
         </is>
       </c>
       <c r="N603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P603" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 13b on street '2-Water Tank Street Ward No-9' share the same name as serial number 602.</t>
+          <t>Multiple voters in house number 13b on street '2-Water Tank Street Ward No-9' share the same name as serial number 602. | Serial number 602 does not have any valid parent or spouse relationship with other voters in house number 13b on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -42124,16 +42412,16 @@
         </is>
       </c>
       <c r="N604" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P604" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 13B on street '2-Water Tank Street Ward No-9' share the same name as serial number 603.</t>
+          <t>Multiple voters in house number 13B on street '2-Water Tank Street Ward No-9' share the same name as serial number 603. | Serial number 603 does not have any valid parent or spouse relationship with other voters in house number 13B on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -43388,12 +43676,12 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P622" t="inlineStr">
         <is>
-          <t>Serial number 621 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 621 does not have any valid parent or spouse relationship with other voters in house number 154 on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -43462,12 +43750,12 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P623" t="inlineStr">
         <is>
-          <t>Serial number 622 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 622 does not have any valid parent or spouse relationship with other voters in house number 154 on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -44266,10 +44554,18 @@
         </is>
       </c>
       <c r="N635" t="n">
-        <v>0</v>
-      </c>
-      <c r="O635" t="inlineStr"/>
-      <c r="P635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P635" t="inlineStr">
+        <is>
+          <t>Serial number 634 does not have any valid parent or spouse relationship with other voters in house number 17 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -45074,10 +45370,18 @@
         </is>
       </c>
       <c r="N647" t="n">
-        <v>0</v>
-      </c>
-      <c r="O647" t="inlineStr"/>
-      <c r="P647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>Serial number 646 does not have any valid parent or spouse relationship with other voters in house number 19 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -45140,10 +45444,18 @@
         </is>
       </c>
       <c r="N648" t="n">
-        <v>0</v>
-      </c>
-      <c r="O648" t="inlineStr"/>
-      <c r="P648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P648" t="inlineStr">
+        <is>
+          <t>Serial number 647 does not have any valid parent or spouse relationship with other voters in house number 19 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -46186,16 +46498,16 @@
         </is>
       </c>
       <c r="N663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P663" t="inlineStr">
         <is>
-          <t>House number 22 on street '2-Water Tank Street Ward No-9' contains 11 registered voters including serial number 662, which exceeds the household size threshold.</t>
+          <t>Serial number 662 does not have any valid parent or spouse relationship with other voters in house number 22 on street '2-Water Tank Street Ward No-9'. | House number 22 on street '2-Water Tank Street Ward No-9' contains 11 registered voters including serial number 662, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -47004,12 +47316,12 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P674" t="inlineStr">
         <is>
-          <t>Serial number 673 is the only voter listed under house number 22-12 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
+          <t>Serial number 673 does not have any valid parent or spouse relationship with other voters in house number 22-12 on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -47078,12 +47390,12 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P675" t="inlineStr">
         <is>
-          <t>Serial number 674 is the only voter listed under house number 22/12 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
+          <t>Serial number 674 does not have any valid parent or spouse relationship with other voters in house number 22/12 on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -48696,10 +49008,18 @@
         </is>
       </c>
       <c r="N698" t="n">
-        <v>0</v>
-      </c>
-      <c r="O698" t="inlineStr"/>
-      <c r="P698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P698" t="inlineStr">
+        <is>
+          <t>Serial number 697 does not have any valid parent or spouse relationship with other voters in house number 29 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -50946,10 +51266,18 @@
         </is>
       </c>
       <c r="N731" t="n">
-        <v>0</v>
-      </c>
-      <c r="O731" t="inlineStr"/>
-      <c r="P731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O731" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P731" t="inlineStr">
+        <is>
+          <t>Serial number 730 does not have any valid parent or spouse relationship with other voters in house number 36/13 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -51012,10 +51340,18 @@
         </is>
       </c>
       <c r="N732" t="n">
-        <v>0</v>
-      </c>
-      <c r="O732" t="inlineStr"/>
-      <c r="P732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O732" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P732" t="inlineStr">
+        <is>
+          <t>Serial number 731 does not have any valid parent or spouse relationship with other voters in house number 36/13 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -51226,16 +51562,16 @@
         </is>
       </c>
       <c r="N735" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P735" t="inlineStr">
         <is>
-          <t>Serial number 734 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 734 does not have any valid parent or spouse relationship with other voters in house number 37 on street '2-Water Tank Street Ward No-9'. | Serial number 734 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -51300,10 +51636,18 @@
         </is>
       </c>
       <c r="N736" t="n">
-        <v>0</v>
-      </c>
-      <c r="O736" t="inlineStr"/>
-      <c r="P736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O736" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P736" t="inlineStr">
+        <is>
+          <t>Serial number 735 does not have any valid parent or spouse relationship with other voters in house number 37 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -51778,16 +52122,16 @@
         </is>
       </c>
       <c r="N743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P743" t="inlineStr">
         <is>
-          <t>House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 742, which exceeds the household size threshold. | Serial number 742 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 742, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -52658,18 +53002,10 @@
         </is>
       </c>
       <c r="N755" t="n">
-        <v>1</v>
-      </c>
-      <c r="O755" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P755" t="inlineStr">
-        <is>
-          <t>Serial number 754 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O755" t="inlineStr"/>
+      <c r="P755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="n">
@@ -52880,18 +53216,10 @@
         </is>
       </c>
       <c r="N758" t="n">
-        <v>1</v>
-      </c>
-      <c r="O758" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P758" t="inlineStr">
-        <is>
-          <t>Serial number 757 does not have any valid parent or spouse relationship with other voters in house number 38-2 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O758" t="inlineStr"/>
+      <c r="P758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="n">
@@ -52958,12 +53286,12 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P759" t="inlineStr">
         <is>
-          <t>Serial number 758 is the only voter listed under house number 38/2 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
+          <t>Serial number 758 does not have any valid parent or spouse relationship with other voters in house number 38/2 on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -53028,18 +53356,10 @@
         </is>
       </c>
       <c r="N760" t="n">
-        <v>1</v>
-      </c>
-      <c r="O760" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P760" t="inlineStr">
-        <is>
-          <t>Serial number 759 does not have any valid parent or spouse relationship with other voters in house number 38-2 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O760" t="inlineStr"/>
+      <c r="P760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -55648,16 +55968,16 @@
         </is>
       </c>
       <c r="N798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P798" t="inlineStr">
         <is>
-          <t>Serial number 797 is the only voter listed under house number 38-A on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 797 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 797 is the only voter listed under house number 38-A on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -55862,10 +56182,18 @@
         </is>
       </c>
       <c r="N801" t="n">
-        <v>0</v>
-      </c>
-      <c r="O801" t="inlineStr"/>
-      <c r="P801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O801" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P801" t="inlineStr">
+        <is>
+          <t>Serial number 800 does not have any valid parent or spouse relationship with other voters in house number 38A2 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
@@ -56504,16 +56832,16 @@
         </is>
       </c>
       <c r="N810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P810" t="inlineStr">
         <is>
-          <t>House number 38C on street '2-Water Tank Street Ward No-9' contains 16 registered voters including serial number 809, which exceeds the household size threshold. | Serial number 809 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 38C on street '2-Water Tank Street Ward No-9' contains 16 registered voters including serial number 809, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -60676,10 +61004,18 @@
         </is>
       </c>
       <c r="N868" t="n">
-        <v>0</v>
-      </c>
-      <c r="O868" t="inlineStr"/>
-      <c r="P868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O868" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P868" t="inlineStr">
+        <is>
+          <t>Serial number 867 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
@@ -60742,10 +61078,18 @@
         </is>
       </c>
       <c r="N869" t="n">
-        <v>0</v>
-      </c>
-      <c r="O869" t="inlineStr"/>
-      <c r="P869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O869" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P869" t="inlineStr">
+        <is>
+          <t>Serial number 868 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
@@ -60808,10 +61152,18 @@
         </is>
       </c>
       <c r="N870" t="n">
-        <v>0</v>
-      </c>
-      <c r="O870" t="inlineStr"/>
-      <c r="P870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O870" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P870" t="inlineStr">
+        <is>
+          <t>Serial number 869 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -60940,10 +61292,18 @@
         </is>
       </c>
       <c r="N872" t="n">
-        <v>0</v>
-      </c>
-      <c r="O872" t="inlineStr"/>
-      <c r="P872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O872" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P872" t="inlineStr">
+        <is>
+          <t>Serial number 871 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
@@ -61722,10 +62082,18 @@
         </is>
       </c>
       <c r="N883" t="n">
-        <v>0</v>
-      </c>
-      <c r="O883" t="inlineStr"/>
-      <c r="P883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O883" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P883" t="inlineStr">
+        <is>
+          <t>Serial number 882 does not have any valid parent or spouse relationship with other voters in house number 42 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
@@ -61854,10 +62222,18 @@
         </is>
       </c>
       <c r="N885" t="n">
-        <v>0</v>
-      </c>
-      <c r="O885" t="inlineStr"/>
-      <c r="P885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O885" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P885" t="inlineStr">
+        <is>
+          <t>Serial number 884 does not have any valid parent or spouse relationship with other voters in house number 42 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
@@ -65068,18 +65444,10 @@
         </is>
       </c>
       <c r="N932" t="n">
-        <v>1</v>
-      </c>
-      <c r="O932" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P932" t="inlineStr">
-        <is>
-          <t>Serial number 931 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O932" t="inlineStr"/>
+      <c r="P932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="n">
@@ -66494,10 +66862,18 @@
         </is>
       </c>
       <c r="N953" t="n">
-        <v>0</v>
-      </c>
-      <c r="O953" t="inlineStr"/>
-      <c r="P953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O953" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P953" t="inlineStr">
+        <is>
+          <t>Serial number 952 does not have any valid parent or spouse relationship with other voters in house number 62 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
@@ -67162,10 +67538,18 @@
         </is>
       </c>
       <c r="N963" t="n">
-        <v>0</v>
-      </c>
-      <c r="O963" t="inlineStr"/>
-      <c r="P963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O963" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P963" t="inlineStr">
+        <is>
+          <t>Serial number 962 does not have any valid parent or spouse relationship with other voters in house number 65 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
@@ -67228,10 +67612,18 @@
         </is>
       </c>
       <c r="N964" t="n">
-        <v>0</v>
-      </c>
-      <c r="O964" t="inlineStr"/>
-      <c r="P964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O964" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P964" t="inlineStr">
+        <is>
+          <t>Serial number 963 does not have any valid parent or spouse relationship with other voters in house number 65 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
@@ -68242,10 +68634,18 @@
         </is>
       </c>
       <c r="N979" t="n">
-        <v>0</v>
-      </c>
-      <c r="O979" t="inlineStr"/>
-      <c r="P979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O979" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P979" t="inlineStr">
+        <is>
+          <t>Serial number 978 does not have any valid parent or spouse relationship with other voters in house number 71 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
@@ -68374,10 +68774,18 @@
         </is>
       </c>
       <c r="N981" t="n">
-        <v>0</v>
-      </c>
-      <c r="O981" t="inlineStr"/>
-      <c r="P981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O981" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P981" t="inlineStr">
+        <is>
+          <t>Serial number 980 does not have any valid parent or spouse relationship with other voters in house number 71 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -68638,10 +69046,18 @@
         </is>
       </c>
       <c r="N985" t="n">
-        <v>0</v>
-      </c>
-      <c r="O985" t="inlineStr"/>
-      <c r="P985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O985" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P985" t="inlineStr">
+        <is>
+          <t>Serial number 984 does not have any valid parent or spouse relationship with other voters in house number 71 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
@@ -68704,10 +69120,18 @@
         </is>
       </c>
       <c r="N986" t="n">
-        <v>0</v>
-      </c>
-      <c r="O986" t="inlineStr"/>
-      <c r="P986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O986" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P986" t="inlineStr">
+        <is>
+          <t>Serial number 985 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -68836,10 +69260,18 @@
         </is>
       </c>
       <c r="N988" t="n">
-        <v>0</v>
-      </c>
-      <c r="O988" t="inlineStr"/>
-      <c r="P988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O988" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P988" t="inlineStr">
+        <is>
+          <t>Serial number 987 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
@@ -69166,10 +69598,18 @@
         </is>
       </c>
       <c r="N993" t="n">
-        <v>0</v>
-      </c>
-      <c r="O993" t="inlineStr"/>
-      <c r="P993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O993" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P993" t="inlineStr">
+        <is>
+          <t>Serial number 992 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
@@ -69232,16 +69672,16 @@
         </is>
       </c>
       <c r="N994" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P994" t="inlineStr">
         <is>
-          <t>Serial number 993 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 993 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'. | Serial number 993 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -70402,10 +70842,18 @@
         </is>
       </c>
       <c r="N1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1011" t="inlineStr"/>
-      <c r="P1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1011" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1011" t="inlineStr">
+        <is>
+          <t>Serial number 1010 does not have any valid parent or spouse relationship with other voters in house number 62 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
@@ -70872,10 +71320,18 @@
         </is>
       </c>
       <c r="N1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1018" t="inlineStr"/>
-      <c r="P1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1018" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1018" t="inlineStr">
+        <is>
+          <t>Serial number 1017 does not have any valid parent or spouse relationship with other voters in house number 84-1 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
@@ -70938,10 +71394,18 @@
         </is>
       </c>
       <c r="N1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1019" t="inlineStr"/>
-      <c r="P1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1019" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1019" t="inlineStr">
+        <is>
+          <t>Serial number 1018 does not have any valid parent or spouse relationship with other voters in house number 84-1 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
@@ -71614,10 +72078,18 @@
         </is>
       </c>
       <c r="N1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1029" t="inlineStr"/>
-      <c r="P1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1029" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1029" t="inlineStr">
+        <is>
+          <t>Serial number 1028 does not have any valid parent or spouse relationship with other voters in house number 89 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
@@ -71680,10 +72152,18 @@
         </is>
       </c>
       <c r="N1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1030" t="inlineStr"/>
-      <c r="P1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1030" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1030" t="inlineStr">
+        <is>
+          <t>Serial number 1029 does not have any valid parent or spouse relationship with other voters in house number 89 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
@@ -71746,10 +72226,18 @@
         </is>
       </c>
       <c r="N1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1031" t="inlineStr"/>
-      <c r="P1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1031" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1031" t="inlineStr">
+        <is>
+          <t>Serial number 1030 does not have any valid parent or spouse relationship with other voters in house number 89 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
@@ -73262,10 +73750,18 @@
         </is>
       </c>
       <c r="N1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1053" t="inlineStr"/>
-      <c r="P1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1053" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1053" t="inlineStr">
+        <is>
+          <t>Serial number 1052 does not have any valid parent or spouse relationship with other voters in house number 102 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
@@ -73724,10 +74220,18 @@
         </is>
       </c>
       <c r="N1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1060" t="inlineStr"/>
-      <c r="P1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1060" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1060" t="inlineStr">
+        <is>
+          <t>Serial number 1059 does not have any valid parent or spouse relationship with other voters in house number 106 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
@@ -75224,16 +75728,16 @@
         </is>
       </c>
       <c r="N1082" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P1082" t="inlineStr">
         <is>
-          <t>Serial number 1081 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1081 does not have any valid parent or spouse relationship with other voters in house number 119 on street '2-Water Tank Street Ward No-9'. | Serial number 1081 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -75298,10 +75802,18 @@
         </is>
       </c>
       <c r="N1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1083" t="inlineStr"/>
-      <c r="P1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1083" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1083" t="inlineStr">
+        <is>
+          <t>Serial number 1082 does not have any valid parent or spouse relationship with other voters in house number 119 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
@@ -75932,18 +76444,10 @@
         </is>
       </c>
       <c r="N1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1092" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1092" t="inlineStr">
-        <is>
-          <t>Serial number 1091 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1092" t="inlineStr"/>
+      <c r="P1092" t="inlineStr"/>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
@@ -76006,10 +76510,18 @@
         </is>
       </c>
       <c r="N1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1093" t="inlineStr"/>
-      <c r="P1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1093" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1093" t="inlineStr">
+        <is>
+          <t>Serial number 1092 does not have any valid parent or spouse relationship with other voters in house number 130 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
@@ -76076,12 +76588,12 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1094" t="inlineStr">
         <is>
-          <t>Serial number 1093 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1093 does not have any valid parent or spouse relationship with other voters in house number 130 on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -77498,10 +78010,18 @@
         </is>
       </c>
       <c r="N1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1115" t="inlineStr"/>
-      <c r="P1115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1115" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1115" t="inlineStr">
+        <is>
+          <t>Serial number 1114 does not have any valid parent or spouse relationship with other voters in house number 150 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
@@ -77630,10 +78150,18 @@
         </is>
       </c>
       <c r="N1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1117" t="inlineStr"/>
-      <c r="P1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1117" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1117" t="inlineStr">
+        <is>
+          <t>Serial number 1116 does not have any valid parent or spouse relationship with other voters in house number 150 on street '2-Water Tank Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
@@ -80258,16 +80786,16 @@
         </is>
       </c>
       <c r="N1155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, INVALID_EPIC_ID, INVALID_HOUSE_NO, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>AGE_ZERO_OR_INVALID, INVALID_HOUSE_NO, ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1155" t="inlineStr">
         <is>
-          <t>Serial number 1154 is the only voter listed under house number Chidambaram on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 1154 was flagged due to rule: INVALID_EPIC_ID. | Serial number 1154 has invalid age value 0. | House number 'Chidambaram' does not contain any numeric digits.</t>
+          <t>Serial number 1154 is the only voter listed under house number Chidambaram on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 1154 has invalid age value 0. | House number 'Chidambaram' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -80464,16 +80992,16 @@
         </is>
       </c>
       <c r="N1158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P1158" t="inlineStr">
         <is>
-          <t>House number 'D' does not contain any numeric digits.</t>
+          <t>Serial number 1157 does not have any valid parent or spouse relationship with other voters in house number D on street '2-Water Tank Street Ward No-9'. | House number 'D' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -80538,16 +81066,16 @@
         </is>
       </c>
       <c r="N1159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>INVALID_HOUSE_NO</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P1159" t="inlineStr">
         <is>
-          <t>House number 'D' does not contain any numeric digits.</t>
+          <t>Serial number 1158 does not have any valid parent or spouse relationship with other voters in house number D on street '2-Water Tank Street Ward No-9'. | House number 'D' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>

--- a/out_booth_244/suspect_summary.xlsx
+++ b/out_booth_244/suspect_summary.xlsx
@@ -774,18 +774,10 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Serial number 4 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1655,7 +1647,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Serial number 16 does not have a valid house number recorded.</t>
+          <t>Serial number 16 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1721,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Serial number 17 does not have a valid house number recorded.</t>
+          <t>Serial number 17 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -2362,18 +2354,10 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Serial number 26 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2988,18 +2972,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Serial number 35 does not have any valid parent or spouse relationship with other voters in house number 3-524 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3062,18 +3038,10 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Serial number 36 does not have any valid parent or spouse relationship with other voters in house number 3-524 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3639,7 +3607,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Serial number 44 does not have any valid parent or spouse relationship with other voters in house number 5A on street '1-Karupparayan Kovil Street Ward No-9'. | Serial number 44 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 44 was flagged due to rule: INVALID_EPIC_ID. | Serial number 44 does not have any valid parent or spouse relationship with other voters in house number 5A on street '1-Karupparayan Kovil Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3681,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Serial number 45 is the only voter listed under house number 54-22 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 45 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 45 was flagged due to rule: INVALID_EPIC_ID. | Serial number 45 is the only voter listed under house number 54-22 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4019,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Serial number 50 is the only voter listed under house number 6-52 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 50 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 50 was flagged due to rule: INVALID_EPIC_ID. | Serial number 50 is the only voter listed under house number 6-52 on street '1-Karupparayan Kovil Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -5244,18 +5212,10 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Serial number 67 does not have any valid parent or spouse relationship with other voters in house number 7C on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5318,16 +5278,16 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Serial number 68 does not have any valid parent or spouse relationship with other voters in house number 7C on street '1-Karupparayan Kovil Street Ward No-9'. | Serial number 68 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 68 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -5524,18 +5484,10 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Serial number 71 does not have any valid parent or spouse relationship with other voters in house number 7D on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5598,18 +5550,10 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Serial number 72 does not have any valid parent or spouse relationship with other voters in house number 7d on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6546,18 +6490,10 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Serial number 86 does not have any valid parent or spouse relationship with other voters in house number 11 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7996,18 +7932,10 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>Serial number 107 does not have any valid parent or spouse relationship with other voters in house number 154 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8070,18 +7998,10 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>Serial number 108 does not have any valid parent or spouse relationship with other voters in house number 154 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8350,18 +8270,10 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>Serial number 112 does not have any valid parent or spouse relationship with other voters in house number 16 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8433,7 +8345,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Serial number 113 shares the same EPIC ID (DHH5473301) with serial number(s) [1177] in part(s) ['244'] inside assembly ['116']. | Serial number 113 has invalid age value 0. | Serial number 113 does not have a valid house number recorded.</t>
+          <t>Serial number 113 shares the same EPIC ID (DHH5473301) with serial number(s) [1177] in part(s) ['244'] inside assembly ['116']. | Serial number 113 has invalid age value 0. | Serial number 113 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -8507,7 +8419,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Serial number 114 has invalid age value 0. | Serial number 114 does not have a valid house number recorded.</t>
+          <t>Serial number 114 has invalid age value 0. | Serial number 114 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8493,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Serial number 115 has invalid age value 0. | Serial number 115 does not have a valid house number recorded.</t>
+          <t>Serial number 115 has invalid age value 0. | Serial number 115 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -8844,18 +8756,10 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>Serial number 119 does not have any valid parent or spouse relationship with other voters in house number 17 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10492,10 +10396,18 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Serial number 143 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -10558,18 +10470,10 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>Serial number 144 does not have any valid parent or spouse relationship with other voters in house number 23 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -10698,16 +10602,16 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>INVALID_EPIC_ID, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Serial number 146 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 146 was flagged due to rule: INVALID_EPIC_ID. | Serial number 146 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
         </is>
       </c>
     </row>
@@ -10838,18 +10742,10 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>1</v>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>Serial number 148 does not have any valid parent or spouse relationship with other voters in house number 24 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -11126,18 +11022,10 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>1</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>Serial number 152 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -11200,18 +11088,10 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>1</v>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>Serial number 153 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11406,18 +11286,10 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>1</v>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>Serial number 156 does not have any valid parent or spouse relationship with other voters in house number 25 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -12617,7 +12489,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>Serial number 173 does not have a valid house number recorded.</t>
+          <t>Serial number 173 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -13514,18 +13386,10 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>1</v>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>Serial number 186 does not have any valid parent or spouse relationship with other voters in house number 3543 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13588,18 +13452,10 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>1</v>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>Serial number 187 does not have any valid parent or spouse relationship with other voters in house number 3543 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -14371,7 +14227,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>Serial number 198 shares the same EPIC ID (NHH2352482) with serial number(s) [1176] in part(s) ['244'] inside assembly ['116']. | Serial number 198 has invalid age value 0. | Serial number 198 does not have a valid house number recorded.</t>
+          <t>Serial number 198 shares the same EPIC ID (NHH2352482) with serial number(s) [1176] in part(s) ['244'] inside assembly ['116']. | Serial number 198 has invalid age value 0. | Serial number 198 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14301,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 38 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 199.</t>
+          <t>Multiple voters in house number 38 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -14585,7 +14441,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 38 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 201.</t>
+          <t>Multiple voters in house number 38 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -15737,7 +15593,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 217.</t>
+          <t>Multiple voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -15802,18 +15658,10 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>1</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>Serial number 218 does not have any valid parent or spouse relationship with other voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -15876,16 +15724,16 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 219. | Serial number 219 does not have any valid parent or spouse relationship with other voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+          <t>Multiple voters in house number 40 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -16436,18 +16284,10 @@
         </is>
       </c>
       <c r="N228" t="n">
-        <v>1</v>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>Serial number 227 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -16510,18 +16350,10 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>1</v>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>Serial number 228 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -18933,7 +18765,7 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>Serial number 263 does not have a valid house number recorded.</t>
+          <t>Serial number 263 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -19344,18 +19176,10 @@
         </is>
       </c>
       <c r="N270" t="n">
-        <v>1</v>
-      </c>
-      <c r="O270" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P270" t="inlineStr">
-        <is>
-          <t>Serial number 269 does not have any valid parent or spouse relationship with other voters in house number 53 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -20721,7 +20545,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>Serial number 289 has invalid age value 0. | Serial number 289 does not have a valid house number recorded.</t>
+          <t>Serial number 289 has invalid age value 0. | Serial number 289 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -22617,7 +22441,7 @@
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>Serial number 317 has invalid age value 0. | Serial number 317 does not have a valid house number recorded.</t>
+          <t>Serial number 317 has invalid age value 0. | Serial number 317 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -23992,16 +23816,16 @@
         </is>
       </c>
       <c r="N338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>Serial number 337 has identical personal and family details as serial number(s) [338] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 337. | Serial number 337 does not have any valid parent or spouse relationship with other voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+          <t>Serial number 337 has identical personal and family details as serial number(s) [338] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -24066,16 +23890,16 @@
         </is>
       </c>
       <c r="N339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>Serial number 338 has identical personal and family details as serial number(s) [337] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 338. | Serial number 338 does not have any valid parent or spouse relationship with other voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+          <t>Serial number 338 has identical personal and family details as serial number(s) [337] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 77 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -24297,7 +24121,7 @@
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>Serial number 341 has invalid age value 0. | Serial number 341 does not have a valid house number recorded.</t>
+          <t>Serial number 341 has invalid age value 0. | Serial number 341 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -24371,7 +24195,7 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Serial number 342 has invalid age value 0. | Serial number 342 does not have a valid house number recorded.</t>
+          <t>Serial number 342 has invalid age value 0. | Serial number 342 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -24634,18 +24458,10 @@
         </is>
       </c>
       <c r="N347" t="n">
-        <v>1</v>
-      </c>
-      <c r="O347" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P347" t="inlineStr">
-        <is>
-          <t>Serial number 346 does not have any valid parent or spouse relationship with other voters in house number 81 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -24980,16 +24796,16 @@
         </is>
       </c>
       <c r="N352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Serial number 351 does not have any valid parent or spouse relationship with other voters in house number 83 on street '1-Karupparayan Kovil Street Ward No-9'. | Serial number 351 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 351 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -25129,7 +24945,7 @@
       </c>
       <c r="P354" t="inlineStr">
         <is>
-          <t>Serial number 353 does not have a valid house number recorded.</t>
+          <t>Serial number 353 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -25194,18 +25010,10 @@
         </is>
       </c>
       <c r="N355" t="n">
-        <v>1</v>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P355" t="inlineStr">
-        <is>
-          <t>Serial number 354 does not have any valid parent or spouse relationship with other voters in house number 83 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -25902,18 +25710,10 @@
         </is>
       </c>
       <c r="N365" t="n">
-        <v>1</v>
-      </c>
-      <c r="O365" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P365" t="inlineStr">
-        <is>
-          <t>Serial number 364 does not have any valid parent or spouse relationship with other voters in house number 86 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O365" t="inlineStr"/>
+      <c r="P365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -25976,18 +25776,10 @@
         </is>
       </c>
       <c r="N366" t="n">
-        <v>1</v>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P366" t="inlineStr">
-        <is>
-          <t>Serial number 365 does not have any valid parent or spouse relationship with other voters in house number 86 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O366" t="inlineStr"/>
+      <c r="P366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -26256,18 +26048,10 @@
         </is>
       </c>
       <c r="N370" t="n">
-        <v>1</v>
-      </c>
-      <c r="O370" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P370" t="inlineStr">
-        <is>
-          <t>Serial number 369 does not have any valid parent or spouse relationship with other voters in house number 87 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O370" t="inlineStr"/>
+      <c r="P370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -26801,7 +26585,7 @@
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>Serial number 377 does not have a valid house number recorded.</t>
+          <t>Serial number 377 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -27205,7 +26989,7 @@
       </c>
       <c r="P384" t="inlineStr">
         <is>
-          <t>Serial number 383 does not have a valid house number recorded.</t>
+          <t>Serial number 383 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -28218,18 +28002,10 @@
         </is>
       </c>
       <c r="N399" t="n">
-        <v>1</v>
-      </c>
-      <c r="O399" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P399" t="inlineStr">
-        <is>
-          <t>Serial number 398 does not have any valid parent or spouse relationship with other voters in house number 98 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O399" t="inlineStr"/>
+      <c r="P399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -28292,18 +28068,10 @@
         </is>
       </c>
       <c r="N400" t="n">
-        <v>1</v>
-      </c>
-      <c r="O400" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P400" t="inlineStr">
-        <is>
-          <t>Serial number 399 does not have any valid parent or spouse relationship with other voters in house number 98 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O400" t="inlineStr"/>
+      <c r="P400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -28366,18 +28134,10 @@
         </is>
       </c>
       <c r="N401" t="n">
-        <v>1</v>
-      </c>
-      <c r="O401" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P401" t="inlineStr">
-        <is>
-          <t>Serial number 400 does not have any valid parent or spouse relationship with other voters in house number 98-308 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -28440,18 +28200,10 @@
         </is>
       </c>
       <c r="N402" t="n">
-        <v>1</v>
-      </c>
-      <c r="O402" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P402" t="inlineStr">
-        <is>
-          <t>Serial number 401 does not have any valid parent or spouse relationship with other voters in house number 98-308 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -28844,18 +28596,10 @@
         </is>
       </c>
       <c r="N408" t="n">
-        <v>1</v>
-      </c>
-      <c r="O408" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P408" t="inlineStr">
-        <is>
-          <t>Serial number 407 does not have any valid parent or spouse relationship with other voters in house number 101 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -28993,7 +28737,7 @@
       </c>
       <c r="P410" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 102 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 409.</t>
+          <t>Multiple voters in house number 102 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -29133,7 +28877,7 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 102 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 411. | Serial number 411 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 411 was flagged due to rule: INVALID_EPIC_ID. | Multiple voters in house number 102 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -29355,7 +29099,7 @@
       </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>Serial number 414 is the only voter listed under house number 102-A on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 414 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 414 was flagged due to rule: INVALID_EPIC_ID. | Serial number 414 is the only voter listed under house number 102-A on street '1-Karupparayan Kovil Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -30722,16 +30466,16 @@
         </is>
       </c>
       <c r="N435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P435" t="inlineStr">
         <is>
-          <t>Serial number 434 has identical personal and family details as serial number(s) [435] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 434. | Serial number 434 does not have any valid parent or spouse relationship with other voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
+          <t>Serial number 434 has identical personal and family details as serial number(s) [435] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -30796,16 +30540,16 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, INVALID_EPIC_ID, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>DUPLICATE_DETAILS, INVALID_EPIC_ID, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P436" t="inlineStr">
         <is>
-          <t>Serial number 435 has identical personal and family details as serial number(s) [434] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name as serial number 435. | Serial number 435 does not have any valid parent or spouse relationship with other voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9'. | Serial number 435 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 435 was flagged due to rule: INVALID_EPIC_ID. | Serial number 435 has identical personal and family details as serial number(s) [434] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 114 on street '1-Karupparayan Kovil Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -31504,18 +31248,10 @@
         </is>
       </c>
       <c r="N446" t="n">
-        <v>1</v>
-      </c>
-      <c r="O446" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P446" t="inlineStr">
-        <is>
-          <t>Serial number 445 does not have any valid parent or spouse relationship with other voters in house number 162 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -31578,18 +31314,10 @@
         </is>
       </c>
       <c r="N447" t="n">
-        <v>1</v>
-      </c>
-      <c r="O447" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P447" t="inlineStr">
-        <is>
-          <t>Serial number 446 does not have any valid parent or spouse relationship with other voters in house number 162 on street '1-Karupparayan Kovil Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -31949,7 +31677,7 @@
       </c>
       <c r="P452" t="inlineStr">
         <is>
-          <t>Serial number 451 is the only voter listed under house number karupurayan on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | House number 'karupurayan' does not contain any numeric digits.</t>
+          <t>Serial number 451 is the only voter listed under house number karupurayan on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 451 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -32023,7 +31751,7 @@
       </c>
       <c r="P453" t="inlineStr">
         <is>
-          <t>Serial number 452 is the only voter listed under house number MAHALAKSHMI on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | House number 'MAHALAKSHMI' does not contain any numeric digits.</t>
+          <t>Serial number 452 is the only voter listed under house number MAHALAKSHMI on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 452 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -32097,7 +31825,7 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>Serial number 453 is the only voter listed under house number Na on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | House number 'Na' does not contain any numeric digits.</t>
+          <t>Serial number 453 is the only voter listed under house number Na on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 453 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -32171,7 +31899,7 @@
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>Serial number 454 has invalid age value 0. | Serial number 454 does not have a valid house number recorded.</t>
+          <t>Serial number 454 has invalid age value 0. | Serial number 454 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -32245,7 +31973,7 @@
       </c>
       <c r="P456" t="inlineStr">
         <is>
-          <t>Serial number 455 is the only voter listed under house number NO on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | House number 'NO' does not contain any numeric digits.</t>
+          <t>Serial number 455 is the only voter listed under house number NO on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 455 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -32319,7 +32047,7 @@
       </c>
       <c r="P457" t="inlineStr">
         <is>
-          <t>Serial number 456 is the only voter listed under house number P on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | House number 'P' does not contain any numeric digits.</t>
+          <t>Serial number 456 is the only voter listed under house number P on street '1-Karupparayan Kovil Street Ward No-9' in booth 244. | Serial number 456 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -32384,18 +32112,10 @@
         </is>
       </c>
       <c r="N458" t="n">
-        <v>1</v>
-      </c>
-      <c r="O458" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P458" t="inlineStr">
-        <is>
-          <t>Serial number 457 does not have any valid parent or spouse relationship with other voters in house number 1G on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O458" t="inlineStr"/>
+      <c r="P458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -32458,18 +32178,10 @@
         </is>
       </c>
       <c r="N459" t="n">
-        <v>1</v>
-      </c>
-      <c r="O459" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P459" t="inlineStr">
-        <is>
-          <t>Serial number 458 does not have any valid parent or spouse relationship with other voters in house number 1G on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -32796,18 +32508,10 @@
         </is>
       </c>
       <c r="N464" t="n">
-        <v>1</v>
-      </c>
-      <c r="O464" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P464" t="inlineStr">
-        <is>
-          <t>Serial number 463 does not have any valid parent or spouse relationship with other voters in house number 1X on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -32944,18 +32648,10 @@
         </is>
       </c>
       <c r="N466" t="n">
-        <v>1</v>
-      </c>
-      <c r="O466" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P466" t="inlineStr">
-        <is>
-          <t>Serial number 465 does not have any valid parent or spouse relationship with other voters in house number 1X on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -33018,18 +32714,10 @@
         </is>
       </c>
       <c r="N467" t="n">
-        <v>1</v>
-      </c>
-      <c r="O467" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P467" t="inlineStr">
-        <is>
-          <t>Serial number 466 does not have any valid parent or spouse relationship with other voters in house number 1x on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -33842,18 +33530,10 @@
         </is>
       </c>
       <c r="N479" t="n">
-        <v>1</v>
-      </c>
-      <c r="O479" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P479" t="inlineStr">
-        <is>
-          <t>Serial number 478 does not have any valid parent or spouse relationship with other voters in house number 3 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O479" t="inlineStr"/>
+      <c r="P479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -34913,7 +34593,7 @@
       </c>
       <c r="P494" t="inlineStr">
         <is>
-          <t>Serial number 493 is the only voter listed under house number 4-A on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 493 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 493 was flagged due to rule: INVALID_EPIC_ID. | Serial number 493 is the only voter listed under house number 4-A on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -36734,18 +36414,10 @@
         </is>
       </c>
       <c r="N521" t="n">
-        <v>1</v>
-      </c>
-      <c r="O521" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P521" t="inlineStr">
-        <is>
-          <t>Serial number 520 does not have any valid parent or spouse relationship with other voters in house number 7 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O521" t="inlineStr"/>
+      <c r="P521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -39833,7 +39505,7 @@
       </c>
       <c r="P566" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 10 on street '2-Water Tank Street Ward No-9' share the same name as serial number 565.</t>
+          <t>Multiple voters in house number 10 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -39973,7 +39645,7 @@
       </c>
       <c r="P568" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 10 on street '2-Water Tank Street Ward No-9' share the same name as serial number 567.</t>
+          <t>Multiple voters in house number 10 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -40847,7 +40519,7 @@
       </c>
       <c r="P581" t="inlineStr">
         <is>
-          <t>Serial number 580 does not have any valid parent or spouse relationship with other voters in house number 11/1 on street '2-Water Tank Street Ward No-9'. | Serial number 580 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 580 was flagged due to rule: INVALID_EPIC_ID. | Serial number 580 does not have any valid parent or spouse relationship with other voters in house number 11/1 on street '2-Water Tank Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -41877,7 +41549,7 @@
       </c>
       <c r="P596" t="inlineStr">
         <is>
-          <t>Serial number 595 has invalid age value 0. | Serial number 595 does not have a valid house number recorded.</t>
+          <t>Serial number 595 has invalid age value 0. | Serial number 595 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -42342,12 +42014,12 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>SAME_NAME_IN_SAME_HOUSE, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P603" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 13b on street '2-Water Tank Street Ward No-9' share the same name as serial number 602. | Serial number 602 does not have any valid parent or spouse relationship with other voters in house number 13b on street '2-Water Tank Street Ward No-9'.</t>
+          <t>Multiple voters in house number 13b on street '2-Water Tank Street Ward No-9' share the same name. | Serial number 602 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
         </is>
       </c>
     </row>
@@ -42416,12 +42088,12 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>SAME_NAME_IN_SAME_HOUSE, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P604" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 13B on street '2-Water Tank Street Ward No-9' share the same name as serial number 603. | Serial number 603 does not have any valid parent or spouse relationship with other voters in house number 13B on street '2-Water Tank Street Ward No-9'.</t>
+          <t>Multiple voters in house number 13B on street '2-Water Tank Street Ward No-9' share the same name. | Serial number 603 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
         </is>
       </c>
     </row>
@@ -43203,7 +42875,7 @@
       </c>
       <c r="P615" t="inlineStr">
         <is>
-          <t>Serial number 614 is the only voter listed under house number 14-C-18 on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 614 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 614 was flagged due to rule: INVALID_EPIC_ID. | Serial number 614 is the only voter listed under house number 14-C-18 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -43672,18 +43344,10 @@
         </is>
       </c>
       <c r="N622" t="n">
-        <v>1</v>
-      </c>
-      <c r="O622" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P622" t="inlineStr">
-        <is>
-          <t>Serial number 621 does not have any valid parent or spouse relationship with other voters in house number 154 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -43746,18 +43410,10 @@
         </is>
       </c>
       <c r="N623" t="n">
-        <v>1</v>
-      </c>
-      <c r="O623" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P623" t="inlineStr">
-        <is>
-          <t>Serial number 622 does not have any valid parent or spouse relationship with other voters in house number 154 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -43829,7 +43485,7 @@
       </c>
       <c r="P624" t="inlineStr">
         <is>
-          <t>Serial number 623 does not have a valid house number recorded.</t>
+          <t>Serial number 623 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -44554,18 +44210,10 @@
         </is>
       </c>
       <c r="N635" t="n">
-        <v>1</v>
-      </c>
-      <c r="O635" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P635" t="inlineStr">
-        <is>
-          <t>Serial number 634 does not have any valid parent or spouse relationship with other voters in house number 17 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O635" t="inlineStr"/>
+      <c r="P635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -45370,18 +45018,10 @@
         </is>
       </c>
       <c r="N647" t="n">
-        <v>1</v>
-      </c>
-      <c r="O647" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P647" t="inlineStr">
-        <is>
-          <t>Serial number 646 does not have any valid parent or spouse relationship with other voters in house number 19 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O647" t="inlineStr"/>
+      <c r="P647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -45444,18 +45084,10 @@
         </is>
       </c>
       <c r="N648" t="n">
-        <v>1</v>
-      </c>
-      <c r="O648" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P648" t="inlineStr">
-        <is>
-          <t>Serial number 647 does not have any valid parent or spouse relationship with other voters in house number 19 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O648" t="inlineStr"/>
+      <c r="P648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -45857,7 +45489,7 @@
       </c>
       <c r="P654" t="inlineStr">
         <is>
-          <t>Serial number 653 does not have a valid house number recorded.</t>
+          <t>Serial number 653 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -45997,7 +45629,7 @@
       </c>
       <c r="P656" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 21 on street '2-Water Tank Street Ward No-9' share the same name as serial number 655.</t>
+          <t>Multiple voters in house number 21 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -46137,7 +45769,7 @@
       </c>
       <c r="P658" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 21 on street '2-Water Tank Street Ward No-9' share the same name as serial number 657.</t>
+          <t>Multiple voters in house number 21 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -46498,16 +46130,16 @@
         </is>
       </c>
       <c r="N663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P663" t="inlineStr">
         <is>
-          <t>Serial number 662 does not have any valid parent or spouse relationship with other voters in house number 22 on street '2-Water Tank Street Ward No-9'. | House number 22 on street '2-Water Tank Street Ward No-9' contains 11 registered voters including serial number 662, which exceeds the household size threshold.</t>
+          <t>House number 22 on street '2-Water Tank Street Ward No-9' contains 11 registered voters including serial number 662, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -47312,18 +46944,10 @@
         </is>
       </c>
       <c r="N674" t="n">
-        <v>1</v>
-      </c>
-      <c r="O674" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P674" t="inlineStr">
-        <is>
-          <t>Serial number 673 does not have any valid parent or spouse relationship with other voters in house number 22-12 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O674" t="inlineStr"/>
+      <c r="P674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -47386,18 +47010,10 @@
         </is>
       </c>
       <c r="N675" t="n">
-        <v>1</v>
-      </c>
-      <c r="O675" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P675" t="inlineStr">
-        <is>
-          <t>Serial number 674 does not have any valid parent or spouse relationship with other voters in house number 22/12 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O675" t="inlineStr"/>
+      <c r="P675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -48589,7 +48205,7 @@
       </c>
       <c r="P692" t="inlineStr">
         <is>
-          <t>Serial number 691 shares the same EPIC ID (NHH1381898) with serial number(s) [] in part(s) ['244'] inside assembly ['116']. | Serial number 691 has invalid age value 0. | Serial number 691 does not have a valid house number recorded.</t>
+          <t>Serial number 691 shares the same EPIC ID (NHH1381898) with serial number(s) [725] in part(s) ['244', '245'] inside assembly ['116']. | Serial number 691 has invalid age value 0. | Serial number 691 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -48877,7 +48493,7 @@
       </c>
       <c r="P696" t="inlineStr">
         <is>
-          <t>Serial number 695 is the only voter listed under house number 284 on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 695 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 695 was flagged due to rule: INVALID_EPIC_ID. | Serial number 695 is the only voter listed under house number 284 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -49008,18 +48624,10 @@
         </is>
       </c>
       <c r="N698" t="n">
-        <v>1</v>
-      </c>
-      <c r="O698" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P698" t="inlineStr">
-        <is>
-          <t>Serial number 697 does not have any valid parent or spouse relationship with other voters in house number 29 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O698" t="inlineStr"/>
+      <c r="P698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -49437,7 +49045,7 @@
       </c>
       <c r="P704" t="inlineStr">
         <is>
-          <t>Serial number 703 is the only voter listed under house number 31-C on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 703 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 703 was flagged due to rule: INVALID_EPIC_ID. | Serial number 703 is the only voter listed under house number 31-C on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -50393,7 +50001,7 @@
       </c>
       <c r="P718" t="inlineStr">
         <is>
-          <t>Serial number 717 is the only voter listed under house number 35-6E on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 717 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 717 was flagged due to rule: INVALID_EPIC_ID. | Serial number 717 is the only voter listed under house number 35-6E on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -51266,18 +50874,10 @@
         </is>
       </c>
       <c r="N731" t="n">
-        <v>1</v>
-      </c>
-      <c r="O731" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P731" t="inlineStr">
-        <is>
-          <t>Serial number 730 does not have any valid parent or spouse relationship with other voters in house number 36/13 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O731" t="inlineStr"/>
+      <c r="P731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -51340,18 +50940,10 @@
         </is>
       </c>
       <c r="N732" t="n">
-        <v>1</v>
-      </c>
-      <c r="O732" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P732" t="inlineStr">
-        <is>
-          <t>Serial number 731 does not have any valid parent or spouse relationship with other voters in house number 36/13 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O732" t="inlineStr"/>
+      <c r="P732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -51562,16 +51154,16 @@
         </is>
       </c>
       <c r="N735" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P735" t="inlineStr">
         <is>
-          <t>Serial number 734 does not have any valid parent or spouse relationship with other voters in house number 37 on street '2-Water Tank Street Ward No-9'. | Serial number 734 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 734 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -51636,18 +51228,10 @@
         </is>
       </c>
       <c r="N736" t="n">
-        <v>1</v>
-      </c>
-      <c r="O736" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P736" t="inlineStr">
-        <is>
-          <t>Serial number 735 does not have any valid parent or spouse relationship with other voters in house number 37 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O736" t="inlineStr"/>
+      <c r="P736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -52353,7 +51937,7 @@
       </c>
       <c r="P746" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 38 on street '2-Water Tank Street Ward No-9' share the same name as serial number 745. | House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 745, which exceeds the household size threshold.</t>
+          <t>Multiple voters in house number 38 on street '2-Water Tank Street Ward No-9' share the same name. | House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 745, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -53077,7 +52661,7 @@
       </c>
       <c r="P756" t="inlineStr">
         <is>
-          <t>Serial number 755 has identical personal and family details as serial number(s) [756] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 38/1 on street '2-Water Tank Street Ward No-9' share the same name as serial number 755.</t>
+          <t>Serial number 755 has identical personal and family details as serial number(s) [756] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 38/1 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -53151,7 +52735,7 @@
       </c>
       <c r="P757" t="inlineStr">
         <is>
-          <t>Serial number 756 has identical personal and family details as serial number(s) [755] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 38/1 on street '2-Water Tank Street Ward No-9' share the same name as serial number 756.</t>
+          <t>Serial number 756 has identical personal and family details as serial number(s) [755] in part(s) ['244'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 38/1 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -56182,18 +55766,10 @@
         </is>
       </c>
       <c r="N801" t="n">
-        <v>1</v>
-      </c>
-      <c r="O801" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P801" t="inlineStr">
-        <is>
-          <t>Serial number 800 does not have any valid parent or spouse relationship with other voters in house number 38A2 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O801" t="inlineStr"/>
+      <c r="P801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="n">
@@ -56397,7 +55973,7 @@
       </c>
       <c r="P804" t="inlineStr">
         <is>
-          <t>Serial number 803 is the only voter listed under house number 38A4 on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 803 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 803 was flagged due to rule: INVALID_EPIC_ID. | Serial number 803 is the only voter listed under house number 38A4 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -56989,7 +56565,7 @@
       </c>
       <c r="P812" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 38C on street '2-Water Tank Street Ward No-9' share the same name as serial number 811. | House number 38C on street '2-Water Tank Street Ward No-9' contains 16 registered voters including serial number 811, which exceeds the household size threshold.</t>
+          <t>Multiple voters in house number 38C on street '2-Water Tank Street Ward No-9' share the same name. | House number 38C on street '2-Water Tank Street Ward No-9' contains 16 registered voters including serial number 811, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -58157,7 +57733,7 @@
       </c>
       <c r="P828" t="inlineStr">
         <is>
-          <t>Serial number 827 is the only voter listed under house number 380-13 on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 827 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 827 was flagged due to rule: INVALID_EPIC_ID. | Serial number 827 is the only voter listed under house number 380-13 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -58666,16 +58242,16 @@
         </is>
       </c>
       <c r="N835" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>BULK_10_PLUS, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P835" t="inlineStr">
         <is>
-          <t>House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 834, which exceeds the household size threshold.</t>
+          <t>Serial number 834 was flagged due to rule: TWO_WIVES_SAME_HUSBAND. | House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 834, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -58749,7 +58325,7 @@
       </c>
       <c r="P836" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 38C on street '2-Water Tank Street Ward No-9' share the same name as serial number 835. | House number 38C on street '2-Water Tank Street Ward No-9' contains 16 registered voters including serial number 835, which exceeds the household size threshold.</t>
+          <t>Multiple voters in house number 38C on street '2-Water Tank Street Ward No-9' share the same name. | House number 38C on street '2-Water Tank Street Ward No-9' contains 16 registered voters including serial number 835, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -59935,7 +59511,7 @@
       </c>
       <c r="P853" t="inlineStr">
         <is>
-          <t>Serial number 852 is the only voter listed under house number 38D11 on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 852 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 852 was flagged due to rule: INVALID_EPIC_ID. | Serial number 852 is the only voter listed under house number 38D11 on street '2-Water Tank Street Ward No-9' in booth 244.</t>
         </is>
       </c>
     </row>
@@ -60445,7 +60021,7 @@
       </c>
       <c r="P860" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 38 on street '2-Water Tank Street Ward No-9' share the same name as serial number 859. | House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 859, which exceeds the household size threshold.</t>
+          <t>Multiple voters in house number 38 on street '2-Water Tank Street Ward No-9' share the same name. | House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 859, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -60658,16 +60234,16 @@
         </is>
       </c>
       <c r="N863" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>BULK_10_PLUS, TWO_WIVES_SAME_HUSBAND</t>
         </is>
       </c>
       <c r="P863" t="inlineStr">
         <is>
-          <t>House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 862, which exceeds the household size threshold.</t>
+          <t>Serial number 862 was flagged due to rule: TWO_WIVES_SAME_HUSBAND. | House number 38 on street '2-Water Tank Street Ward No-9' contains 19 registered voters including serial number 862, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -61004,18 +60580,10 @@
         </is>
       </c>
       <c r="N868" t="n">
-        <v>1</v>
-      </c>
-      <c r="O868" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P868" t="inlineStr">
-        <is>
-          <t>Serial number 867 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O868" t="inlineStr"/>
+      <c r="P868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="n">
@@ -61078,18 +60646,10 @@
         </is>
       </c>
       <c r="N869" t="n">
-        <v>1</v>
-      </c>
-      <c r="O869" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P869" t="inlineStr">
-        <is>
-          <t>Serial number 868 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O869" t="inlineStr"/>
+      <c r="P869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="n">
@@ -61152,18 +60712,10 @@
         </is>
       </c>
       <c r="N870" t="n">
-        <v>1</v>
-      </c>
-      <c r="O870" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P870" t="inlineStr">
-        <is>
-          <t>Serial number 869 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O870" t="inlineStr"/>
+      <c r="P870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -61292,18 +60844,10 @@
         </is>
       </c>
       <c r="N872" t="n">
-        <v>1</v>
-      </c>
-      <c r="O872" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P872" t="inlineStr">
-        <is>
-          <t>Serial number 871 does not have any valid parent or spouse relationship with other voters in house number 39 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O872" t="inlineStr"/>
+      <c r="P872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="n">
@@ -62082,18 +61626,10 @@
         </is>
       </c>
       <c r="N883" t="n">
-        <v>1</v>
-      </c>
-      <c r="O883" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P883" t="inlineStr">
-        <is>
-          <t>Serial number 882 does not have any valid parent or spouse relationship with other voters in house number 42 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O883" t="inlineStr"/>
+      <c r="P883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="n">
@@ -62222,18 +61758,10 @@
         </is>
       </c>
       <c r="N885" t="n">
-        <v>1</v>
-      </c>
-      <c r="O885" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P885" t="inlineStr">
-        <is>
-          <t>Serial number 884 does not have any valid parent or spouse relationship with other voters in house number 42 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O885" t="inlineStr"/>
+      <c r="P885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="n">
@@ -63385,7 +62913,7 @@
       </c>
       <c r="P902" t="inlineStr">
         <is>
-          <t>Serial number 901 shares the same EPIC ID (NHH0851071) with serial number(s) [] in part(s) ['244'] inside assembly ['116']. | Serial number 901 has invalid age value 0. | Serial number 901 does not have a valid house number recorded.</t>
+          <t>Serial number 901 shares the same EPIC ID (NHH0851071) with serial number(s) [729] in part(s) ['244', '245'] inside assembly ['116']. | Serial number 901 has invalid age value 0. | Serial number 901 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -64893,7 +64421,7 @@
       </c>
       <c r="P924" t="inlineStr">
         <is>
-          <t>Serial number 923 does not have a valid house number recorded.</t>
+          <t>Serial number 923 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -66862,18 +66390,10 @@
         </is>
       </c>
       <c r="N953" t="n">
-        <v>1</v>
-      </c>
-      <c r="O953" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P953" t="inlineStr">
-        <is>
-          <t>Serial number 952 does not have any valid parent or spouse relationship with other voters in house number 62 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O953" t="inlineStr"/>
+      <c r="P953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="n">
@@ -66945,7 +66465,7 @@
       </c>
       <c r="P954" t="inlineStr">
         <is>
-          <t>Serial number 953 does not have a valid house number recorded.</t>
+          <t>Serial number 953 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -67538,18 +67058,10 @@
         </is>
       </c>
       <c r="N963" t="n">
-        <v>1</v>
-      </c>
-      <c r="O963" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P963" t="inlineStr">
-        <is>
-          <t>Serial number 962 does not have any valid parent or spouse relationship with other voters in house number 65 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O963" t="inlineStr"/>
+      <c r="P963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="n">
@@ -67612,18 +67124,10 @@
         </is>
       </c>
       <c r="N964" t="n">
-        <v>1</v>
-      </c>
-      <c r="O964" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P964" t="inlineStr">
-        <is>
-          <t>Serial number 963 does not have any valid parent or spouse relationship with other voters in house number 65 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O964" t="inlineStr"/>
+      <c r="P964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="n">
@@ -68634,18 +68138,10 @@
         </is>
       </c>
       <c r="N979" t="n">
-        <v>1</v>
-      </c>
-      <c r="O979" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P979" t="inlineStr">
-        <is>
-          <t>Serial number 978 does not have any valid parent or spouse relationship with other voters in house number 71 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O979" t="inlineStr"/>
+      <c r="P979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" t="n">
@@ -68774,18 +68270,10 @@
         </is>
       </c>
       <c r="N981" t="n">
-        <v>1</v>
-      </c>
-      <c r="O981" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P981" t="inlineStr">
-        <is>
-          <t>Serial number 980 does not have any valid parent or spouse relationship with other voters in house number 71 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O981" t="inlineStr"/>
+      <c r="P981" t="inlineStr"/>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -69046,18 +68534,10 @@
         </is>
       </c>
       <c r="N985" t="n">
-        <v>1</v>
-      </c>
-      <c r="O985" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P985" t="inlineStr">
-        <is>
-          <t>Serial number 984 does not have any valid parent or spouse relationship with other voters in house number 71 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O985" t="inlineStr"/>
+      <c r="P985" t="inlineStr"/>
     </row>
     <row r="986">
       <c r="A986" t="n">
@@ -69120,18 +68600,10 @@
         </is>
       </c>
       <c r="N986" t="n">
-        <v>1</v>
-      </c>
-      <c r="O986" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P986" t="inlineStr">
-        <is>
-          <t>Serial number 985 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O986" t="inlineStr"/>
+      <c r="P986" t="inlineStr"/>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -69260,18 +68732,10 @@
         </is>
       </c>
       <c r="N988" t="n">
-        <v>1</v>
-      </c>
-      <c r="O988" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P988" t="inlineStr">
-        <is>
-          <t>Serial number 987 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O988" t="inlineStr"/>
+      <c r="P988" t="inlineStr"/>
     </row>
     <row r="989">
       <c r="A989" t="n">
@@ -69598,18 +69062,10 @@
         </is>
       </c>
       <c r="N993" t="n">
-        <v>1</v>
-      </c>
-      <c r="O993" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P993" t="inlineStr">
-        <is>
-          <t>Serial number 992 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O993" t="inlineStr"/>
+      <c r="P993" t="inlineStr"/>
     </row>
     <row r="994">
       <c r="A994" t="n">
@@ -69672,16 +69128,16 @@
         </is>
       </c>
       <c r="N994" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P994" t="inlineStr">
         <is>
-          <t>Serial number 993 does not have any valid parent or spouse relationship with other voters in house number 72 on street '2-Water Tank Street Ward No-9'. | Serial number 993 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 993 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -70842,18 +70298,10 @@
         </is>
       </c>
       <c r="N1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1011" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1011" t="inlineStr">
-        <is>
-          <t>Serial number 1010 does not have any valid parent or spouse relationship with other voters in house number 62 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1011" t="inlineStr"/>
+      <c r="P1011" t="inlineStr"/>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
@@ -71320,18 +70768,10 @@
         </is>
       </c>
       <c r="N1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1018" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1018" t="inlineStr">
-        <is>
-          <t>Serial number 1017 does not have any valid parent or spouse relationship with other voters in house number 84-1 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1018" t="inlineStr"/>
+      <c r="P1018" t="inlineStr"/>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
@@ -71394,18 +70834,10 @@
         </is>
       </c>
       <c r="N1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1019" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1019" t="inlineStr">
-        <is>
-          <t>Serial number 1018 does not have any valid parent or spouse relationship with other voters in house number 84-1 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1019" t="inlineStr"/>
+      <c r="P1019" t="inlineStr"/>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
@@ -71468,10 +70900,18 @@
         </is>
       </c>
       <c r="N1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1020" t="inlineStr"/>
-      <c r="P1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1020" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P1020" t="inlineStr">
+        <is>
+          <t>Serial number 1019 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
@@ -71534,10 +70974,18 @@
         </is>
       </c>
       <c r="N1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1021" t="inlineStr"/>
-      <c r="P1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1021" t="inlineStr">
+        <is>
+          <t>TWO_WIVES_SAME_HUSBAND</t>
+        </is>
+      </c>
+      <c r="P1021" t="inlineStr">
+        <is>
+          <t>Serial number 1020 was flagged due to rule: TWO_WIVES_SAME_HUSBAND.</t>
+        </is>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
@@ -71807,7 +71255,7 @@
       </c>
       <c r="P1025" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 85 on street '2-Water Tank Street Ward No-9' share the same name as serial number 1024.</t>
+          <t>Multiple voters in house number 85 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -71947,7 +71395,7 @@
       </c>
       <c r="P1027" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 85 on street '2-Water Tank Street Ward No-9' share the same name as serial number 1026.</t>
+          <t>Multiple voters in house number 85 on street '2-Water Tank Street Ward No-9' share the same name.</t>
         </is>
       </c>
     </row>
@@ -72078,18 +71526,10 @@
         </is>
       </c>
       <c r="N1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1029" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1029" t="inlineStr">
-        <is>
-          <t>Serial number 1028 does not have any valid parent or spouse relationship with other voters in house number 89 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1029" t="inlineStr"/>
+      <c r="P1029" t="inlineStr"/>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
@@ -72152,18 +71592,10 @@
         </is>
       </c>
       <c r="N1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1030" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1030" t="inlineStr">
-        <is>
-          <t>Serial number 1029 does not have any valid parent or spouse relationship with other voters in house number 89 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1030" t="inlineStr"/>
+      <c r="P1030" t="inlineStr"/>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
@@ -72226,18 +71658,10 @@
         </is>
       </c>
       <c r="N1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1031" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1031" t="inlineStr">
-        <is>
-          <t>Serial number 1030 does not have any valid parent or spouse relationship with other voters in house number 89 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1031" t="inlineStr"/>
+      <c r="P1031" t="inlineStr"/>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
@@ -73141,7 +72565,7 @@
       </c>
       <c r="P1044" t="inlineStr">
         <is>
-          <t>Serial number 1043 does not have a valid house number recorded.</t>
+          <t>Serial number 1043 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -73750,18 +73174,10 @@
         </is>
       </c>
       <c r="N1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1053" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1053" t="inlineStr">
-        <is>
-          <t>Serial number 1052 does not have any valid parent or spouse relationship with other voters in house number 102 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1053" t="inlineStr"/>
+      <c r="P1053" t="inlineStr"/>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
@@ -74220,18 +73636,10 @@
         </is>
       </c>
       <c r="N1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1060" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1060" t="inlineStr">
-        <is>
-          <t>Serial number 1059 does not have any valid parent or spouse relationship with other voters in house number 106 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1060" t="inlineStr"/>
+      <c r="P1060" t="inlineStr"/>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
@@ -74699,7 +74107,7 @@
       </c>
       <c r="P1067" t="inlineStr">
         <is>
-          <t>Serial number 1066 has invalid age value 0. | Serial number 1066 does not have a valid house number recorded.</t>
+          <t>Serial number 1066 has invalid age value 0. | Serial number 1066 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -75728,16 +75136,16 @@
         </is>
       </c>
       <c r="N1082" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P1082" t="inlineStr">
         <is>
-          <t>Serial number 1081 does not have any valid parent or spouse relationship with other voters in house number 119 on street '2-Water Tank Street Ward No-9'. | Serial number 1081 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1081 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -75802,18 +75210,10 @@
         </is>
       </c>
       <c r="N1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1083" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1083" t="inlineStr">
-        <is>
-          <t>Serial number 1082 does not have any valid parent or spouse relationship with other voters in house number 119 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1083" t="inlineStr"/>
+      <c r="P1083" t="inlineStr"/>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
@@ -76510,18 +75910,10 @@
         </is>
       </c>
       <c r="N1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1093" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1093" t="inlineStr">
-        <is>
-          <t>Serial number 1092 does not have any valid parent or spouse relationship with other voters in house number 130 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1093" t="inlineStr"/>
+      <c r="P1093" t="inlineStr"/>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
@@ -76584,18 +75976,10 @@
         </is>
       </c>
       <c r="N1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1094" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1094" t="inlineStr">
-        <is>
-          <t>Serial number 1093 does not have any valid parent or spouse relationship with other voters in house number 130 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1094" t="inlineStr"/>
+      <c r="P1094" t="inlineStr"/>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
@@ -77269,7 +76653,7 @@
       </c>
       <c r="P1104" t="inlineStr">
         <is>
-          <t>Serial number 1103 does not have a valid house number recorded.</t>
+          <t>Serial number 1103 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -78010,18 +77394,10 @@
         </is>
       </c>
       <c r="N1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1115" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1115" t="inlineStr">
-        <is>
-          <t>Serial number 1114 does not have any valid parent or spouse relationship with other voters in house number 150 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1115" t="inlineStr"/>
+      <c r="P1115" t="inlineStr"/>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
@@ -78150,18 +77526,10 @@
         </is>
       </c>
       <c r="N1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1117" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P1117" t="inlineStr">
-        <is>
-          <t>Serial number 1116 does not have any valid parent or spouse relationship with other voters in house number 150 on street '2-Water Tank Street Ward No-9'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1117" t="inlineStr"/>
+      <c r="P1117" t="inlineStr"/>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
@@ -79329,7 +78697,7 @@
       </c>
       <c r="P1134" t="inlineStr">
         <is>
-          <t>Serial number 1133 does not have a valid house number recorded.</t>
+          <t>Serial number 1133 was flagged due to rule: HOUSE_NO_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -80795,7 +80163,7 @@
       </c>
       <c r="P1155" t="inlineStr">
         <is>
-          <t>Serial number 1154 is the only voter listed under house number Chidambaram on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 1154 has invalid age value 0. | House number 'Chidambaram' does not contain any numeric digits.</t>
+          <t>Serial number 1154 is the only voter listed under house number Chidambaram on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 1154 has invalid age value 0. | Serial number 1154 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -80992,16 +80360,16 @@
         </is>
       </c>
       <c r="N1158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
+          <t>INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P1158" t="inlineStr">
         <is>
-          <t>Serial number 1157 does not have any valid parent or spouse relationship with other voters in house number D on street '2-Water Tank Street Ward No-9'. | House number 'D' does not contain any numeric digits.</t>
+          <t>Serial number 1157 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -81066,16 +80434,16 @@
         </is>
       </c>
       <c r="N1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_HOUSE_NO</t>
+          <t>INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P1159" t="inlineStr">
         <is>
-          <t>Serial number 1158 does not have any valid parent or spouse relationship with other voters in house number D on street '2-Water Tank Street Ward No-9'. | House number 'D' does not contain any numeric digits.</t>
+          <t>Serial number 1158 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -81149,7 +80517,7 @@
       </c>
       <c r="P1160" t="inlineStr">
         <is>
-          <t>Serial number 1159 is the only voter listed under house number Na on street '2-Water Tank Street Ward No-9' in booth 244. | House number 'Na' does not contain any numeric digits.</t>
+          <t>Serial number 1159 is the only voter listed under house number Na on street '2-Water Tank Street Ward No-9' in booth 244. | Serial number 1159 was flagged due to rule: INVALID_HOUSE_NO.</t>
         </is>
       </c>
     </row>
@@ -81297,7 +80665,7 @@
       </c>
       <c r="P1162" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1161, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1161 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81371,7 +80739,7 @@
       </c>
       <c r="P1163" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1162, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1162 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81445,7 +80813,7 @@
       </c>
       <c r="P1164" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1163, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1163 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81519,7 +80887,7 @@
       </c>
       <c r="P1165" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1164, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1164 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81593,7 +80961,7 @@
       </c>
       <c r="P1166" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1165, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1165 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81667,7 +81035,7 @@
       </c>
       <c r="P1167" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1166, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1166 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81741,7 +81109,7 @@
       </c>
       <c r="P1168" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1167, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1167 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81815,7 +81183,7 @@
       </c>
       <c r="P1169" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1168, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1168 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81889,7 +81257,7 @@
       </c>
       <c r="P1170" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1169, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1169 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -81963,7 +81331,7 @@
       </c>
       <c r="P1171" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1170, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1170 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82037,7 +81405,7 @@
       </c>
       <c r="P1172" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1171, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1171 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82111,7 +81479,7 @@
       </c>
       <c r="P1173" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1172, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1172 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82185,7 +81553,7 @@
       </c>
       <c r="P1174" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1173, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1173 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82259,7 +81627,7 @@
       </c>
       <c r="P1175" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1174, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1174 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82333,7 +81701,7 @@
       </c>
       <c r="P1176" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1175, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1175 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82407,7 +81775,7 @@
       </c>
       <c r="P1177" t="inlineStr">
         <is>
-          <t>Serial number 1176 shares the same EPIC ID (NHH2352482) with serial number(s) [198] in part(s) ['244'] inside assembly ['116']. | Street name is missing for serial number 1176, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1176 shares the same EPIC ID (NHH2352482) with serial number(s) [198] in part(s) ['244'] inside assembly ['116']. | Serial number 1176 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82481,7 +81849,7 @@
       </c>
       <c r="P1178" t="inlineStr">
         <is>
-          <t>Serial number 1177 shares the same EPIC ID (DHH5473301) with serial number(s) [113] in part(s) ['244'] inside assembly ['116']. | Street name is missing for serial number 1177, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1177 shares the same EPIC ID (DHH5473301) with serial number(s) [113] in part(s) ['244'] inside assembly ['116']. | Serial number 1177 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82555,7 +81923,7 @@
       </c>
       <c r="P1179" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1178, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1178 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
@@ -82629,7 +81997,7 @@
       </c>
       <c r="P1180" t="inlineStr">
         <is>
-          <t>Street name is missing for serial number 1179, therefore household-level verification could not be performed.</t>
+          <t>Serial number 1179 was flagged due to rule: STREET_NAME_UNAVAILABLE.</t>
         </is>
       </c>
     </row>
